--- a/reordered.xlsx
+++ b/reordered.xlsx
@@ -419,25 +419,25 @@
     <t>Are all the medicines within the shelf life?</t>
   </si>
   <si>
+    <t>documentationofMedicationsDispensed</t>
+  </si>
+  <si>
+    <t>Is there documentation of medications dispensed?</t>
+  </si>
+  <si>
+    <t>dispensingRecordsUptodate</t>
+  </si>
+  <si>
+    <t>Look at 2 pages of logbook. Are dispensing records complete and up-to-date?</t>
+  </si>
+  <si>
+    <t>writtenProtocolMedicalDispensing</t>
+  </si>
+  <si>
+    <t>Is a written protocol for medication dispensing and documentation available?</t>
+  </si>
+  <si>
     <t>medicinesComment</t>
-  </si>
-  <si>
-    <t>documentationofMedicationsDispensed</t>
-  </si>
-  <si>
-    <t>Is there documentation of medications dispensed?</t>
-  </si>
-  <si>
-    <t>dispensingRecordsUptodate</t>
-  </si>
-  <si>
-    <t>Look at 2 pages of logbook. Are dispensing records complete and up-to-date?</t>
-  </si>
-  <si>
-    <t>writtenProtocolMedicalDispensing</t>
-  </si>
-  <si>
-    <t>Is a written protocol for medication dispensing and documentation available?</t>
   </si>
   <si>
     <t>wastesegregated</t>
@@ -2236,14 +2236,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2728,28 +2721,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2758,128 +2754,125 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3237,8 +3230,8 @@
   <sheetPr/>
   <dimension ref="A1:D390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C99" workbookViewId="0">
-      <selection activeCell="C107" sqref="$A107:$XFD107"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A64" sqref="$A64:$XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4135,7 +4128,7 @@
         <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -4146,10 +4139,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -4160,10 +4153,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -4174,10 +4167,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
